--- a/Project/scrum/软件工程作业.xlsx
+++ b/Project/scrum/软件工程作业.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\软件工程仓库\team\Project\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E240990-F326-4798-B51F-481A1F9C70CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D715DC-4D91-4AA3-B57C-BEE93F4DCCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户类型" sheetId="5" r:id="rId1"/>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个爱学习的人，我希望可以查看好友的分享，来学习他好友的学习经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>预估工作量(</t>
     </r>
@@ -513,6 +509,10 @@
   </si>
   <si>
     <t>作为一个爱学习的人，我希望能够管理学习计划，以便我根据自己的时间调整学习计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个爱学习的人，我希望可以查看好友的分享，来学习好友的学习经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -854,6 +854,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,21 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1534,7 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1565,26 +1565,26 @@
       <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>93</v>
+      <c r="E1" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="33" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>92</v>
+      <c r="I1" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
@@ -1593,12 +1593,12 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="43"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -1617,22 +1617,22 @@
         <v>5</v>
       </c>
       <c r="F3" s="30"/>
-      <c r="G3" s="44"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>70</v>
@@ -1645,16 +1645,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>71</v>
@@ -1667,16 +1667,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>72</v>
@@ -1689,16 +1689,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>73</v>
@@ -1711,16 +1711,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>74</v>
@@ -1733,16 +1733,16 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>76</v>
@@ -1755,11 +1755,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="11" t="s">
         <v>77</v>
       </c>
@@ -1802,23 +1802,23 @@
         <v>7</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>70</v>
@@ -1831,16 +1831,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>71</v>
@@ -1853,16 +1853,16 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>72</v>
@@ -1875,16 +1875,16 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>73</v>
@@ -1897,16 +1897,16 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>74</v>
@@ -1919,11 +1919,11 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="11" t="s">
         <v>77</v>
       </c>
@@ -1966,23 +1966,23 @@
         <v>7</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>76</v>
@@ -1995,16 +1995,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>70</v>
@@ -2017,16 +2017,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
         <v>78</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>71</v>
@@ -2039,11 +2039,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="11" t="s">
         <v>77</v>
       </c>
@@ -2062,6 +2062,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A4:E10"/>
+    <mergeCell ref="A12:E17"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="D1:D2"/>
@@ -2072,11 +2077,6 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A4:E10"/>
-    <mergeCell ref="A12:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,7 +2090,7 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2119,20 +2119,20 @@
       <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>93</v>
+      <c r="E1" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="33" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>92</v>
+      <c r="I1" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>8</v>
@@ -2145,7 +2145,7 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="43"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="30"/>
-      <c r="G3" s="44"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
@@ -2182,7 +2182,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>72</v>
@@ -2204,7 +2204,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>73</v>
@@ -2226,7 +2226,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>74</v>
@@ -2248,7 +2248,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>76</v>
@@ -2270,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>70</v>
@@ -2289,10 +2289,10 @@
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>71</v>
@@ -2354,7 +2354,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>8</v>
@@ -2369,10 +2369,10 @@
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>73</v>
@@ -2396,7 +2396,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>74</v>
@@ -2420,7 +2420,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>76</v>
@@ -2444,7 +2444,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>70</v>
@@ -2508,7 +2508,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>71</v>
@@ -2543,10 +2543,10 @@
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>72</v>
@@ -2568,7 +2568,7 @@
         <v>56</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>73</v>
@@ -2590,7 +2590,7 @@
         <v>57</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>74</v>
@@ -2626,6 +2626,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A4:E10"/>
     <mergeCell ref="A12:E16"/>
     <mergeCell ref="A18:E22"/>
     <mergeCell ref="A1:A2"/>
@@ -2634,11 +2639,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A4:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2652,8 +2652,8 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2681,20 +2681,20 @@
       <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>93</v>
+      <c r="E1" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="33" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>91</v>
+      <c r="I1" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>8</v>
@@ -2707,7 +2707,7 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="43"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -2729,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="30"/>
-      <c r="G3" s="44"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
@@ -2744,7 +2744,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>76</v>
@@ -2766,7 +2766,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>70</v>
@@ -2785,10 +2785,10 @@
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
       <c r="F6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>71</v>
@@ -2848,7 +2848,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>8</v>
@@ -2865,7 +2865,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>72</v>
@@ -2888,7 +2888,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>73</v>
@@ -2911,7 +2911,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>74</v>
@@ -2973,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>8</v>
@@ -2991,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>76</v>
